--- a/sheets/cards.xlsx
+++ b/sheets/cards.xlsx
@@ -11599,7 +11599,7 @@
     <t>intimidate</t>
   </si>
   <si>
-    <t>At the end of your turn, [[Incept]] 2 {intimidated}.</t>
+    <t>At the end of your turn, [[Incept]] 2 [[Intimidated]].</t>
   </si>
   <si>
     <t>Oh this isn’t me angry, you’ll know when I get angry.</t>
@@ -15304,7 +15304,7 @@
     <t>reputation_preceding</t>
   </si>
   <si>
-    <t>At the end of your turn, [[Incept]] 2 {apprehensive} and [[Destroy]] this card.</t>
+    <t>At the end of your turn, [[Incept]] 2 [[Apprehensive]] and [[Destroy]] this card.</t>
   </si>
   <si>
     <t>Oh we’ve heard about you.</t>
